--- a/Ecuador/Boletín/Medios/sitios_general_ecuador.xlsx
+++ b/Ecuador/Boletín/Medios/sitios_general_ecuador.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOSE\Desktop\Trabajo\BX\Ecuador\Boletín\Medios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{241D875E-A531-4A55-9A67-619DE9D353D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FF52D6-90E6-436E-956B-AE66FAC7B342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="2385" windowWidth="16245" windowHeight="9405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,75 +20,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>extra.ec</t>
   </si>
   <si>
+    <t>diariocorreo.com.ec</t>
+  </si>
+  <si>
+    <t>teleamazonas.com</t>
+  </si>
+  <si>
+    <t>expreso.ec</t>
+  </si>
+  <si>
+    <t>lahora.com.ec</t>
+  </si>
+  <si>
+    <t>elmercurio.com.ec</t>
+  </si>
+  <si>
+    <t>quenoticias.com</t>
+  </si>
+  <si>
+    <t>elcomercio.com</t>
+  </si>
+  <si>
+    <t>eltelegrafo.com.ec</t>
+  </si>
+  <si>
     <t>gk.city</t>
   </si>
   <si>
-    <t>diariocorreo.com.ec</t>
-  </si>
-  <si>
-    <t>elmercurio.com.ec</t>
-  </si>
-  <si>
-    <t>teleamazonas.com</t>
-  </si>
-  <si>
-    <t>expreso.ec</t>
+    <t>vistazo.com</t>
+  </si>
+  <si>
+    <t>lanacion.com.ec</t>
+  </si>
+  <si>
+    <t>cre.com.ec</t>
   </si>
   <si>
     <t>ecuadorenvivo.com</t>
   </si>
   <si>
-    <t>lahora.com.ec</t>
-  </si>
-  <si>
-    <t>quenoticias.com</t>
-  </si>
-  <si>
     <t>primicias.ec</t>
   </si>
   <si>
-    <t>vistazo.com</t>
+    <t>pichinchacomunicaciones.com.ec</t>
+  </si>
+  <si>
+    <t>radiocolosal.com</t>
+  </si>
+  <si>
+    <t>tctelevision.com</t>
+  </si>
+  <si>
+    <t>ecuadorendirecto.com</t>
+  </si>
+  <si>
+    <t>elnorte.ec</t>
+  </si>
+  <si>
+    <t>laverdad.ec</t>
   </si>
   <si>
     <t>zaracaytv.com</t>
   </si>
   <si>
-    <t>eltelegrafo.com.ec</t>
-  </si>
-  <si>
-    <t>tctelevision.com</t>
-  </si>
-  <si>
-    <t>elcomercio.com</t>
-  </si>
-  <si>
-    <t>elnorte.ec</t>
-  </si>
-  <si>
-    <t>ecuadorendirecto.com</t>
+    <t>manabinoticias.com</t>
+  </si>
+  <si>
+    <t>notimundo.com.ec</t>
+  </si>
+  <si>
+    <t>diariolosandes.com.ec</t>
+  </si>
+  <si>
+    <t>cronica.com.ec</t>
   </si>
   <si>
     <t>elvanguardistaonline.com</t>
   </si>
   <si>
-    <t>pichinchacomunicaciones.com.ec</t>
+    <t>srradio.com.ec</t>
+  </si>
+  <si>
+    <t>radiocentro.com.ec</t>
+  </si>
+  <si>
+    <t>centroecuador.ec</t>
+  </si>
+  <si>
+    <t>radiovisioncuenca.com</t>
   </si>
   <si>
     <t>asambleanacional.gob.ec</t>
   </si>
   <si>
-    <t>centroecuador.ec</t>
-  </si>
-  <si>
-    <t>cronica.com.ec</t>
-  </si>
-  <si>
-    <t>srradio.com.ec</t>
+    <t>ecuadornews.com.ec</t>
+  </si>
+  <si>
+    <t>ecuador221.com.ec</t>
+  </si>
+  <si>
+    <t>ecuadorentodo.com</t>
+  </si>
+  <si>
+    <t>forbes.com.ec</t>
+  </si>
+  <si>
+    <t>trafficamerican.com</t>
   </si>
   <si>
     <t>Author</t>
@@ -470,20 +512,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -491,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>35</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -499,7 +541,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>32</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -507,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -515,7 +557,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -523,7 +565,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -531,7 +573,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -539,7 +581,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -547,7 +589,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -555,7 +597,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -563,7 +605,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -571,7 +613,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -579,7 +621,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -587,7 +629,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -595,7 +637,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -603,7 +645,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -611,7 +653,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -619,7 +661,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -627,7 +669,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -635,7 +677,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -643,7 +685,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -651,7 +693,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -659,7 +701,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -667,6 +709,118 @@
         <v>22</v>
       </c>
       <c r="B24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38">
         <v>1</v>
       </c>
     </row>

--- a/Ecuador/Boletín/Medios/sitios_general_ecuador.xlsx
+++ b/Ecuador/Boletín/Medios/sitios_general_ecuador.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JOSE\Desktop\Trabajo\BX\Ecuador\Boletín\Medios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FF52D6-90E6-436E-956B-AE66FAC7B342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D497B7-C289-4607-B8A1-8DEB7C0FDF9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6405" yWindow="2835" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,50 +20,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
-  <si>
-    <t>extra.ec</t>
-  </si>
-  <si>
-    <t>diariocorreo.com.ec</t>
-  </si>
-  <si>
-    <t>teleamazonas.com</t>
-  </si>
-  <si>
-    <t>expreso.ec</t>
-  </si>
-  <si>
-    <t>lahora.com.ec</t>
-  </si>
-  <si>
-    <t>elmercurio.com.ec</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>quenoticias.com</t>
   </si>
   <si>
-    <t>elcomercio.com</t>
-  </si>
-  <si>
-    <t>eltelegrafo.com.ec</t>
-  </si>
-  <si>
-    <t>gk.city</t>
-  </si>
-  <si>
-    <t>vistazo.com</t>
-  </si>
-  <si>
     <t>lanacion.com.ec</t>
   </si>
   <si>
     <t>cre.com.ec</t>
   </si>
   <si>
-    <t>ecuadorenvivo.com</t>
-  </si>
-  <si>
     <t>primicias.ec</t>
   </si>
   <si>
@@ -73,49 +40,25 @@
     <t>radiocolosal.com</t>
   </si>
   <si>
-    <t>tctelevision.com</t>
-  </si>
-  <si>
     <t>ecuadorendirecto.com</t>
   </si>
   <si>
-    <t>elnorte.ec</t>
-  </si>
-  <si>
     <t>laverdad.ec</t>
   </si>
   <si>
-    <t>zaracaytv.com</t>
+    <t>notimundo.com.ec</t>
   </si>
   <si>
     <t>manabinoticias.com</t>
   </si>
   <si>
-    <t>notimundo.com.ec</t>
-  </si>
-  <si>
     <t>diariolosandes.com.ec</t>
   </si>
   <si>
-    <t>cronica.com.ec</t>
-  </si>
-  <si>
-    <t>elvanguardistaonline.com</t>
-  </si>
-  <si>
-    <t>srradio.com.ec</t>
-  </si>
-  <si>
     <t>radiocentro.com.ec</t>
   </si>
   <si>
-    <t>centroecuador.ec</t>
-  </si>
-  <si>
     <t>radiovisioncuenca.com</t>
-  </si>
-  <si>
-    <t>asambleanacional.gob.ec</t>
   </si>
   <si>
     <t>ecuadornews.com.ec</t>
@@ -512,20 +455,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -533,7 +476,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>257</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -541,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>124</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -549,7 +492,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>116</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -557,7 +500,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>104</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -565,7 +508,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -573,7 +516,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>94</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -581,7 +524,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>94</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -589,7 +532,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>81</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -597,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>77</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -605,7 +548,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>65</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -613,7 +556,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>64</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -621,7 +564,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -629,7 +572,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -637,7 +580,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>51</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -645,7 +588,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>51</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -653,7 +596,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>43</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -661,7 +604,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>40</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -669,158 +612,6 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38">
         <v>1</v>
       </c>
     </row>
